--- a/Dupuytrens KPI - Power BI Format v1.xlsx
+++ b/Dupuytrens KPI - Power BI Format v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\Dupuytren-Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3101AAE0-C153-434C-B50A-81B3F3E860E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A93B9-3F3A-4192-AB81-E5B4E3C68C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38410" yWindow="-1780" windowWidth="21600" windowHeight="15370" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pageCompleted_Enroll" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="pageStarted_Long" sheetId="5" r:id="rId5"/>
     <sheet name="pageUnfinished_Long" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="67">
   <si>
     <t>[1] Instructions</t>
   </si>
@@ -202,6 +203,36 @@
   </si>
   <si>
     <t>pageCompleted</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t>This Week</t>
+  </si>
+  <si>
+    <t>All Time</t>
+  </si>
+  <si>
+    <t>Current Phase</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -3654,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D53BBB4-86D5-491A-BDFC-B7AAC4191A21}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4609,4 +4640,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D41D3D-0A75-45E1-B7ED-370A889D1614}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>